--- a/artfynd/A 38738-2023.xlsx
+++ b/artfynd/A 38738-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112371013</v>
+        <v>112365939</v>
       </c>
       <c r="B2" t="n">
-        <v>90843</v>
+        <v>96735</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,51 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5448</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flymossgruvan (Flymossgruvan), Gstr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>578522</v>
+        <v>578480</v>
       </c>
       <c r="R2" t="n">
-        <v>6711578</v>
+        <v>6711580</v>
       </c>
       <c r="S2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -753,9 +763,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>11:23</t>
+        </is>
+      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -770,12 +790,12 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
@@ -785,7 +805,7 @@
         <v>112371078</v>
       </c>
       <c r="B3" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -884,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112365914</v>
+        <v>112371079</v>
       </c>
       <c r="B4" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,20 +938,19 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Flymossgruvan (Flymossgruvan), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>578482</v>
+        <v>578476</v>
       </c>
       <c r="R4" t="n">
-        <v>6711589</v>
+        <v>6711594</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -958,19 +977,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>11:21</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>11:21</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -985,22 +994,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112371080</v>
+        <v>112366298</v>
       </c>
       <c r="B5" t="n">
-        <v>96720</v>
+        <v>103781</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1009,41 +1018,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flymossgruvan (Flymossgruvan), Gstr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>578489</v>
+        <v>578510</v>
       </c>
       <c r="R5" t="n">
-        <v>6711587</v>
+        <v>6711540</v>
       </c>
       <c r="S5" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1070,9 +1080,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>11:43</t>
+        </is>
+      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1087,22 +1107,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112371076</v>
+        <v>112365923</v>
       </c>
       <c r="B6" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1133,19 +1153,20 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flymossgruvan (Flymossgruvan), Gstr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>578476</v>
+        <v>578497</v>
       </c>
       <c r="R6" t="n">
-        <v>6711592</v>
+        <v>6711584</v>
       </c>
       <c r="S6" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1172,9 +1193,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>11:23</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1189,22 +1220,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112371079</v>
+        <v>112366344</v>
       </c>
       <c r="B7" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1234,20 +1265,30 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flymossgruvan (Flymossgruvan), Gstr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>578476</v>
+        <v>578469</v>
       </c>
       <c r="R7" t="n">
         <v>6711594</v>
       </c>
       <c r="S7" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1274,9 +1315,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>11:48</t>
+        </is>
+      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1291,22 +1342,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112365939</v>
+        <v>112371081</v>
       </c>
       <c r="B8" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1336,30 +1387,20 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Flymossgruvan (Flymossgruvan), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>578480</v>
+        <v>578491</v>
       </c>
       <c r="R8" t="n">
-        <v>6711580</v>
+        <v>6711589</v>
       </c>
       <c r="S8" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1386,19 +1427,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>11:23</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>11:23</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1413,22 +1444,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112366344</v>
+        <v>112371013</v>
       </c>
       <c r="B9" t="n">
-        <v>96720</v>
+        <v>90857</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1437,51 +1468,41 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>5448</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Flymossgruvan (Flymossgruvan), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>578469</v>
+        <v>578522</v>
       </c>
       <c r="R9" t="n">
-        <v>6711594</v>
+        <v>6711578</v>
       </c>
       <c r="S9" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1508,19 +1529,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>11:48</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>11:48</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1535,22 +1546,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112365929</v>
+        <v>112366407</v>
       </c>
       <c r="B10" t="n">
-        <v>96720</v>
+        <v>90835</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1559,39 +1570,41 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>5964</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Flymossgruvan (Flymossgruvan), Gstr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>578487</v>
+        <v>578480</v>
       </c>
       <c r="R10" t="n">
-        <v>6711585</v>
+        <v>6711593</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1623,7 +1636,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1633,7 +1646,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1642,6 +1655,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1663,7 +1677,7 @@
         <v>112371077</v>
       </c>
       <c r="B11" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1762,10 +1776,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112366298</v>
+        <v>112371076</v>
       </c>
       <c r="B12" t="n">
-        <v>103755</v>
+        <v>96735</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1774,42 +1788,41 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Flymossgruvan (Flymossgruvan), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>578510</v>
+        <v>578476</v>
       </c>
       <c r="R12" t="n">
-        <v>6711540</v>
+        <v>6711592</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1836,19 +1849,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>11:43</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>11:43</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1863,22 +1866,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112366407</v>
+        <v>112365914</v>
       </c>
       <c r="B13" t="n">
-        <v>90821</v>
+        <v>96735</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1887,41 +1890,39 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5964</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Flymossgruvan (Flymossgruvan), Gstr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>578480</v>
+        <v>578482</v>
       </c>
       <c r="R13" t="n">
-        <v>6711593</v>
+        <v>6711589</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -1953,7 +1954,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1963,7 +1964,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1972,7 +1973,6 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -1991,10 +1991,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112365923</v>
+        <v>112371080</v>
       </c>
       <c r="B14" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2025,20 +2025,19 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Flymossgruvan (Flymossgruvan), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>578497</v>
+        <v>578489</v>
       </c>
       <c r="R14" t="n">
-        <v>6711584</v>
+        <v>6711587</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2065,19 +2064,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>11:23</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>11:23</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2092,22 +2081,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112371081</v>
+        <v>112365929</v>
       </c>
       <c r="B15" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2138,19 +2127,20 @@
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flymossgruvan (Flymossgruvan), Gstr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>578491</v>
+        <v>578487</v>
       </c>
       <c r="R15" t="n">
-        <v>6711589</v>
+        <v>6711585</v>
       </c>
       <c r="S15" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2177,9 +2167,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>11:23</t>
+        </is>
+      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2194,22 +2194,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112388811</v>
+        <v>112388810</v>
       </c>
       <c r="B16" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2246,10 +2246,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>578490</v>
+        <v>578497</v>
       </c>
       <c r="R16" t="n">
-        <v>6711517</v>
+        <v>6711525</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2311,7 +2311,7 @@
         <v>112388809</v>
       </c>
       <c r="B17" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2410,10 +2410,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112388810</v>
+        <v>112388811</v>
       </c>
       <c r="B18" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2450,10 +2450,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>578497</v>
+        <v>578490</v>
       </c>
       <c r="R18" t="n">
-        <v>6711525</v>
+        <v>6711517</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>

--- a/artfynd/A 38738-2023.xlsx
+++ b/artfynd/A 38738-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112365939</v>
+        <v>112371080</v>
       </c>
       <c r="B2" t="n">
         <v>96735</v>
@@ -713,30 +713,20 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Flymossgruvan (Flymossgruvan), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>578480</v>
+        <v>578489</v>
       </c>
       <c r="R2" t="n">
-        <v>6711580</v>
+        <v>6711587</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -763,19 +753,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>11:23</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>11:23</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -790,19 +770,19 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112371078</v>
+        <v>112371079</v>
       </c>
       <c r="B3" t="n">
         <v>96735</v>
@@ -842,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>578466</v>
+        <v>578476</v>
       </c>
       <c r="R3" t="n">
-        <v>6711623</v>
+        <v>6711594</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -904,7 +884,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112371079</v>
+        <v>112365939</v>
       </c>
       <c r="B4" t="n">
         <v>96735</v>
@@ -937,20 +917,30 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flymossgruvan (Flymossgruvan), Gstr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>578476</v>
+        <v>578480</v>
       </c>
       <c r="R4" t="n">
-        <v>6711594</v>
+        <v>6711580</v>
       </c>
       <c r="S4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -977,9 +967,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>11:23</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -994,22 +994,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112366298</v>
+        <v>112365929</v>
       </c>
       <c r="B5" t="n">
-        <v>103781</v>
+        <v>96735</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1018,25 +1018,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>578510</v>
+        <v>578487</v>
       </c>
       <c r="R5" t="n">
-        <v>6711540</v>
+        <v>6711585</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1119,7 +1119,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112365923</v>
+        <v>112366344</v>
       </c>
       <c r="B6" t="n">
         <v>96735</v>
@@ -1152,7 +1152,16 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1160,13 +1169,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>578497</v>
+        <v>578469</v>
       </c>
       <c r="R6" t="n">
-        <v>6711584</v>
+        <v>6711594</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1195,7 +1204,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1205,7 +1214,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1220,19 +1229,19 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112366344</v>
+        <v>112371077</v>
       </c>
       <c r="B7" t="n">
         <v>96735</v>
@@ -1265,30 +1274,20 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Flymossgruvan (Flymossgruvan), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>578469</v>
+        <v>578470</v>
       </c>
       <c r="R7" t="n">
-        <v>6711594</v>
+        <v>6711588</v>
       </c>
       <c r="S7" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1315,19 +1314,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>11:48</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>11:48</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1342,19 +1331,19 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112371081</v>
+        <v>112365914</v>
       </c>
       <c r="B8" t="n">
         <v>96735</v>
@@ -1388,19 +1377,20 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flymossgruvan (Flymossgruvan), Gstr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>578491</v>
+        <v>578482</v>
       </c>
       <c r="R8" t="n">
         <v>6711589</v>
       </c>
       <c r="S8" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1427,9 +1417,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>11:21</t>
+        </is>
+      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1444,22 +1444,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112371013</v>
+        <v>112371076</v>
       </c>
       <c r="B9" t="n">
-        <v>90857</v>
+        <v>96735</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1468,25 +1468,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5448</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>578522</v>
+        <v>578476</v>
       </c>
       <c r="R9" t="n">
-        <v>6711578</v>
+        <v>6711592</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1558,10 +1558,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112366407</v>
+        <v>112365923</v>
       </c>
       <c r="B10" t="n">
-        <v>90835</v>
+        <v>96735</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1570,41 +1570,39 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5964</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Flymossgruvan (Flymossgruvan), Gstr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>578480</v>
+        <v>578497</v>
       </c>
       <c r="R10" t="n">
-        <v>6711593</v>
+        <v>6711584</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1636,7 +1634,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1646,7 +1644,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1655,7 +1653,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1674,10 +1671,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112371077</v>
+        <v>112366407</v>
       </c>
       <c r="B11" t="n">
-        <v>96735</v>
+        <v>90835</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1686,41 +1683,44 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>5964</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flymossgruvan (Flymossgruvan), Gstr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>578470</v>
+        <v>578480</v>
       </c>
       <c r="R11" t="n">
-        <v>6711588</v>
+        <v>6711593</v>
       </c>
       <c r="S11" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1747,39 +1747,50 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>11:53</t>
+        </is>
+      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>11:53</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112371076</v>
+        <v>112366298</v>
       </c>
       <c r="B12" t="n">
-        <v>96735</v>
+        <v>103781</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1788,41 +1799,42 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flymossgruvan (Flymossgruvan), Gstr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>578476</v>
+        <v>578510</v>
       </c>
       <c r="R12" t="n">
-        <v>6711592</v>
+        <v>6711540</v>
       </c>
       <c r="S12" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1849,9 +1861,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>11:43</t>
+        </is>
+      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1866,19 +1888,19 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112365914</v>
+        <v>112371078</v>
       </c>
       <c r="B13" t="n">
         <v>96735</v>
@@ -1912,20 +1934,19 @@
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Flymossgruvan (Flymossgruvan), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>578482</v>
+        <v>578466</v>
       </c>
       <c r="R13" t="n">
-        <v>6711589</v>
+        <v>6711623</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1952,19 +1973,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>11:21</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>11:21</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1979,19 +1990,19 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112371080</v>
+        <v>112371081</v>
       </c>
       <c r="B14" t="n">
         <v>96735</v>
@@ -2031,10 +2042,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>578489</v>
+        <v>578491</v>
       </c>
       <c r="R14" t="n">
-        <v>6711587</v>
+        <v>6711589</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2093,10 +2104,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112365929</v>
+        <v>112371013</v>
       </c>
       <c r="B15" t="n">
-        <v>96735</v>
+        <v>90857</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2105,42 +2116,41 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>5448</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Flymossgruvan (Flymossgruvan), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>578487</v>
+        <v>578522</v>
       </c>
       <c r="R15" t="n">
-        <v>6711585</v>
+        <v>6711578</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2167,19 +2177,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>11:23</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>11:23</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2194,19 +2194,19 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112388810</v>
+        <v>112388811</v>
       </c>
       <c r="B16" t="n">
         <v>96735</v>
@@ -2246,10 +2246,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>578497</v>
+        <v>578490</v>
       </c>
       <c r="R16" t="n">
-        <v>6711525</v>
+        <v>6711517</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112388809</v>
+        <v>112388810</v>
       </c>
       <c r="B17" t="n">
         <v>96735</v>
@@ -2348,10 +2348,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>578496</v>
+        <v>578497</v>
       </c>
       <c r="R17" t="n">
-        <v>6711520</v>
+        <v>6711525</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112388811</v>
+        <v>112388809</v>
       </c>
       <c r="B18" t="n">
         <v>96735</v>
@@ -2450,10 +2450,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>578490</v>
+        <v>578496</v>
       </c>
       <c r="R18" t="n">
-        <v>6711517</v>
+        <v>6711520</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>

--- a/artfynd/A 38738-2023.xlsx
+++ b/artfynd/A 38738-2023.xlsx
@@ -884,7 +884,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112365939</v>
+        <v>112365929</v>
       </c>
       <c r="B4" t="n">
         <v>96735</v>
@@ -917,16 +917,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -934,13 +925,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>578480</v>
+        <v>578487</v>
       </c>
       <c r="R4" t="n">
-        <v>6711580</v>
+        <v>6711585</v>
       </c>
       <c r="S4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -994,19 +985,19 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112365929</v>
+        <v>112365939</v>
       </c>
       <c r="B5" t="n">
         <v>96735</v>
@@ -1039,7 +1030,16 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1047,13 +1047,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>578487</v>
+        <v>578480</v>
       </c>
       <c r="R5" t="n">
-        <v>6711585</v>
+        <v>6711580</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1107,12 +1107,12 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
